--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1615" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CCB6739-18B7-4B94-9644-143CC064B3D2}"/>
+  <xr:revisionPtr revIDLastSave="1617" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73794820-745C-47CF-9255-5D39F5CAC306}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUV" sheetId="17" r:id="rId1"/>
@@ -245,10 +245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1714,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -2302,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E464A6E-318F-4E5F-BBD8-22DF9CD04A86}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
